--- a/data/trans_camb/P16A04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.1559899386750071</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.5263421087076097</v>
+        <v>0.5263421087076093</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.600467449687782</v>
+        <v>-1.799391168926931</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.92092808274417</v>
+        <v>-2.958858360653863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.960205670422414</v>
+        <v>-2.034334772310459</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03382163182124646</v>
+        <v>0.03130404124174356</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.8086949082640444</v>
+        <v>-0.9251566399127822</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.87982031017219</v>
+        <v>-0.9482262280927366</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.3775655626706643</v>
+        <v>-0.2783199862229751</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.289447473847094</v>
+        <v>-1.31474823769444</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.9255632776256432</v>
+        <v>-0.867102247437961</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.003375844844243</v>
+        <v>1.886450809921967</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.104233269816536</v>
+        <v>0.1429475763371899</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.024651110324672</v>
+        <v>3.154737336993701</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.071419164044963</v>
+        <v>4.183452439033845</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.847127579577248</v>
+        <v>2.844853986852176</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.08927387098761</v>
+        <v>4.035522991564151</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.249636482280329</v>
+        <v>2.396119132211169</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.072572479101469</v>
+        <v>1.06132700625623</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.540712100759476</v>
+        <v>2.658383592854173</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.09156761814282886</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3089679605749581</v>
+        <v>0.3089679605749578</v>
       </c>
     </row>
     <row r="8">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6512906446504747</v>
+        <v>-0.6658795663134086</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>-1</v>
@@ -789,22 +789,22 @@
         <v>-1</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1056191059148558</v>
+        <v>-0.1042176780137949</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4465544390056399</v>
+        <v>-0.4677048538844447</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5606394390773967</v>
+        <v>-0.551331582732734</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1839508904578563</v>
+        <v>-0.1881486843914467</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6040292187093292</v>
+        <v>-0.5540185568427938</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.473381939866602</v>
+        <v>-0.4676703366186304</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.11235064495727</v>
+        <v>1.96777498381669</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5474939184989919</v>
+        <v>0.5306503256104879</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.719674038319818</v>
+        <v>3.573577786921388</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.625123870376163</v>
+        <v>5.26845450723328</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.388819750487142</v>
+        <v>3.061303491716808</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.366264899887407</v>
+        <v>4.312907867622468</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.914480668810048</v>
+        <v>2.090199019001964</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.011576252618719</v>
+        <v>1.020012836613944</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.481345739374778</v>
+        <v>2.072880536615514</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.09114557813947148</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.1172156960734284</v>
+        <v>-0.1172156960734291</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.875051669689665</v>
@@ -878,7 +878,7 @@
         <v>1.158404305192378</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.2361189982572752</v>
+        <v>0.2361189982572748</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4893786086759614</v>
+        <v>0.6363829535279901</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7394327633274037</v>
+        <v>0.7585212392299363</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8491312078067692</v>
+        <v>-0.7882496444395766</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2997095040563331</v>
+        <v>-0.1872309055409701</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.011340096627232</v>
+        <v>-1.890690903917418</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.093852493404917</v>
+        <v>-1.85573294341158</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6576559229552182</v>
+        <v>0.7184445198112916</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02211721657849515</v>
+        <v>0.03189734561063417</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.9210814391377424</v>
+        <v>-0.8030763640347544</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.445157143370875</v>
+        <v>3.687393525563353</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.038140226458157</v>
+        <v>3.874620196389464</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.775857427514819</v>
+        <v>2.739510126485515</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.152482210679928</v>
+        <v>4.31747054121792</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.68159103515996</v>
+        <v>1.65740456531943</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.751589628640077</v>
+        <v>1.995224604612186</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.265134341798562</v>
+        <v>3.272184077968614</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.412061511361524</v>
+        <v>2.346587880364545</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.60798779835148</v>
+        <v>1.631832230674264</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.03504620543999932</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.04507037477008333</v>
+        <v>-0.0450703747700836</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1.110732696157364</v>
@@ -983,7 +983,7 @@
         <v>0.6862091098319352</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1398708610476244</v>
+        <v>0.1398708610476242</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2017877507245752</v>
+        <v>0.2586376411612561</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3590886822892784</v>
+        <v>0.3347292966352151</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1258825301944382</v>
+        <v>-0.08995709895893592</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5801808964813766</v>
+        <v>-0.547953729252214</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6043862726783213</v>
+        <v>-0.5587336664082678</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2440874805325847</v>
+        <v>0.2897591208284338</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.008735405281870183</v>
+        <v>-0.01337789505457053</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4450167320699777</v>
+        <v>-0.4161831038586939</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7.309644263256001</v>
+        <v>7.733399470518166</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8.313470694828125</v>
+        <v>7.608207769913544</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5.789275475131721</v>
+        <v>7.256459721582097</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.345328350235234</v>
+        <v>2.397409991215671</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.01263037171184</v>
+        <v>0.9462063989135842</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9925001557853573</v>
+        <v>1.099435150100915</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.728173845533138</v>
+        <v>2.535600481909697</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.949866425615373</v>
+        <v>1.861401372727221</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.262251712189376</v>
+        <v>1.29858921901766</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>0.7708284730892434</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.073436999432786</v>
+        <v>1.073436999432785</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.247469099544824</v>
+        <v>0.3996615013368254</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2255420271254495</v>
+        <v>0.1453701061014745</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1825091056945615</v>
+        <v>0.05595273486008762</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.9794661612860384</v>
+        <v>-1.095636776097506</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.443493020533135</v>
+        <v>-1.693131806382498</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.8767206574568538</v>
+        <v>-0.7842017336493957</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.05211735457351835</v>
+        <v>-0.01978960219548172</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.1617718514495327</v>
+        <v>-0.1801061201737552</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05888897957949047</v>
+        <v>0.02478439518882411</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.969380739854003</v>
+        <v>3.042715267444101</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.966546116947145</v>
+        <v>2.791867998886656</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.034212000414842</v>
+        <v>2.973202629749081</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.332470310527095</v>
+        <v>2.390527755821841</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.749118103719715</v>
+        <v>1.66876549147914</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.232065836236043</v>
+        <v>2.425877941333209</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.216289515884926</v>
+        <v>2.124126534679566</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.935572657645509</v>
+        <v>1.955348597263146</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.278817019517883</v>
+        <v>2.078414859688464</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.5403900305100094</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7525340242678054</v>
+        <v>0.7525340242678051</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.01475560402907034</v>
+        <v>0.1399629922061703</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.09345430659630329</v>
+        <v>-0.1038713945883421</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.03497470534183812</v>
+        <v>-0.1274185893730085</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4079946026653603</v>
+        <v>-0.407449126572951</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5412123572507166</v>
+        <v>-0.5858290649981602</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3222353404331841</v>
+        <v>-0.2971452140625998</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.08650199313756625</v>
+        <v>-0.01614673158347138</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1080367441649677</v>
+        <v>-0.1274756185501676</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.05413398710359847</v>
+        <v>-0.01248299128233683</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>7.300589281605156</v>
+        <v>8.734147139014635</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>7.356915157163059</v>
+        <v>7.060062674863572</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>8.78825585206582</v>
+        <v>7.232082409674484</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.747466595516968</v>
+        <v>1.875373408511279</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.393628276261174</v>
+        <v>1.401536563046977</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.832750148066806</v>
+        <v>2.109980443892467</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.326896103839232</v>
+        <v>2.180634298609752</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.142967247410464</v>
+        <v>2.053772176174327</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.365706821964372</v>
+        <v>2.061937372256007</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.243966635266037</v>
+        <v>-1.273115560056597</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.397104190527801</v>
+        <v>-1.339298874918849</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.3204314940655771</v>
+        <v>-0.3254567139821156</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.22647769679639</v>
+        <v>-1.263188261240099</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.8080012328307</v>
+        <v>-1.923632211319495</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04103340835390275</v>
+        <v>-0.007628342540664172</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.8761770617368101</v>
+        <v>-0.7548367395472098</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.151392597711677</v>
+        <v>-1.260869543689174</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3918687745898118</v>
+        <v>0.2942758647889145</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.051725627129371</v>
+        <v>2.223873557926478</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.877408485181304</v>
+        <v>1.788080311686843</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.191026028166965</v>
+        <v>3.138842027424467</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.652788551955944</v>
+        <v>1.623863121639499</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5403757914516307</v>
+        <v>0.5464240884090845</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.931147800171132</v>
+        <v>2.863487337979675</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.39006936326444</v>
+        <v>1.339601935546697</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8314190669950566</v>
+        <v>0.7945366322606964</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.687772258996656</v>
+        <v>2.497922167305209</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.1111754783226528</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.957300729770341</v>
+        <v>0.9573007297703412</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5532085827609741</v>
+        <v>-0.5996498648005256</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5441040530922597</v>
+        <v>-0.5602126529892543</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2607844364092395</v>
+        <v>-0.2410683615131352</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.603135607768326</v>
+        <v>-0.6121705021213103</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8617428906297421</v>
+        <v>-0.8367612254620184</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.04620804902167843</v>
+        <v>-0.0946208041671109</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4208263897043648</v>
+        <v>-0.3883078813088388</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5653219867338222</v>
+        <v>-0.5848826889234415</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1776223951581826</v>
+        <v>0.1074489725629005</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.74435340911434</v>
+        <v>2.82639250932016</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.347352447895059</v>
+        <v>2.276058090891212</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.919045003467139</v>
+        <v>4.297088766168867</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.063995325074055</v>
+        <v>2.162133449833772</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9722322470608582</v>
+        <v>1.236813346757343</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.475546423006171</v>
+        <v>4.128710894034492</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.36298114654868</v>
+        <v>1.395745301003339</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9384748193648927</v>
+        <v>0.8340905729589023</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.854372741483375</v>
+        <v>2.720920539928332</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-1.203526662346078</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.8293742977107496</v>
+        <v>-0.8293742977107502</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.3904374971125585</v>
@@ -1520,7 +1520,7 @@
         <v>0.04670570994360461</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.606881638348971</v>
+        <v>0.6068816383489704</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.73344089324276</v>
+        <v>-2.485938791631868</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.368549873861089</v>
+        <v>-3.483356283840268</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.154340061479313</v>
+        <v>-3.265118878607741</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.175450532619913</v>
+        <v>-2.340769993550516</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.21821463352446</v>
+        <v>-0.8716210972777187</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.08042733236716416</v>
+        <v>0.05301060688749477</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.941014283695002</v>
+        <v>-1.874270767249531</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.5893773895989</v>
+        <v>-1.651957920428748</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.9222654062073781</v>
+        <v>-1.021776926583462</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.516157166504724</v>
+        <v>2.390030275037611</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9504594933611279</v>
+        <v>0.9796022989972588</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.209429613249474</v>
+        <v>1.021539771729896</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.646512796072054</v>
+        <v>1.662682645355747</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.456314388099637</v>
+        <v>3.489308197855576</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.789401723732958</v>
+        <v>4.109399645501703</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.39474108341325</v>
+        <v>1.247589467813159</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.625905766321814</v>
+        <v>1.586746992653691</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.9151023830141</v>
+        <v>2.006030285185909</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.3661981869571226</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2523544958600835</v>
+        <v>-0.2523544958600837</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.1707643459889434</v>
@@ -1616,7 +1616,7 @@
         <v>0.5453610363906199</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.8846499713369346</v>
+        <v>0.8846499713369348</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.1044297619790435</v>
@@ -1625,7 +1625,7 @@
         <v>0.01682753998549591</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.2186526026070812</v>
+        <v>0.2186526026070809</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6146317658586909</v>
+        <v>-0.5846657112446237</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7598425521268808</v>
+        <v>-0.7606359674150313</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6434223857245093</v>
+        <v>-0.663496460142033</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7145884992368379</v>
+        <v>-0.7001038890198503</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4335014017179666</v>
+        <v>-0.3256900265609557</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.04240904701109557</v>
+        <v>-0.06215694122236896</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5269713520252817</v>
+        <v>-0.5524246513229609</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.43561757344639</v>
+        <v>-0.4552201491782684</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2381192989098339</v>
+        <v>-0.2710542281021118</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.17953907756515</v>
+        <v>1.166310837422377</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5158077243119628</v>
+        <v>0.542555859870398</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.59278431561296</v>
+        <v>0.6089003070038685</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.530565617407611</v>
+        <v>1.44783879573531</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>2.860308351946868</v>
+        <v>2.810460192755409</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3.033215019196525</v>
+        <v>3.218928060660516</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7765719570894311</v>
+        <v>0.6596230497221687</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.8860052813704071</v>
+        <v>0.7966453033171993</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.030422510316243</v>
+        <v>1.029332886513163</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-0.350281619859823</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-0.5475673423474957</v>
+        <v>-0.5475673423474954</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-0.1816833016666623</v>
@@ -1734,7 +1734,7 @@
         <v>-0.4666125287931345</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.06282822951990917</v>
+        <v>0.06282822951990952</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.7591428714879046</v>
+        <v>-0.9211044072755893</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.182773371878171</v>
+        <v>-3.0917396763474</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.126262140323726</v>
+        <v>-2.977165789564553</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.622447686153047</v>
+        <v>-2.77617670380452</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.786107155318411</v>
+        <v>-3.125867603981089</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.636713572399701</v>
+        <v>-1.532919124135295</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.99092698669204</v>
+        <v>-1.254608556033315</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.32407428600289</v>
+        <v>-2.301540248664586</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.460908813210887</v>
+        <v>-1.38676273291934</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.701845763267094</v>
+        <v>6.639792690029781</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.099757178972247</v>
+        <v>2.111598778850667</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.461745381872697</v>
+        <v>1.433847511562555</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.367959237340129</v>
+        <v>2.432126852556405</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.935539889215702</v>
+        <v>1.869887552326783</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.821025612148846</v>
+        <v>2.589570686016835</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.43183199332547</v>
+        <v>3.423188645880995</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.184636330016415</v>
+        <v>1.340930885698124</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.521429968970808</v>
+        <v>1.623608165496808</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.1139943872046575</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.1781983412922578</v>
+        <v>-0.1781983412922577</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.06292728969478464</v>
@@ -1839,7 +1839,7 @@
         <v>-0.1569689041675087</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.02113547693207583</v>
+        <v>0.02113547693207595</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.236601065196061</v>
+        <v>-0.3360578940703229</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7055202249587376</v>
+        <v>-0.7019014581416825</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6804916331854306</v>
+        <v>-0.6374051460558707</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.6653671445299192</v>
+        <v>-0.6740061931974121</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.7393791463074426</v>
+        <v>-0.7618962019138728</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3871614152697869</v>
+        <v>-0.3942372669858883</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.27426988708617</v>
+        <v>-0.3437415685767437</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.6146607611786248</v>
+        <v>-0.590344889805951</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3739264460365959</v>
+        <v>-0.3737457766376509</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.629983709838021</v>
+        <v>3.353508814011875</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.242453450423384</v>
+        <v>1.294784649657436</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.8693942498478267</v>
+        <v>0.8747421207616886</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.366778740934788</v>
+        <v>1.66238450108907</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.357773649859586</v>
+        <v>1.026309362163734</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.845893490597437</v>
+        <v>1.567237101988155</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.640250359867033</v>
+        <v>1.471557266821842</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.5558957872207482</v>
+        <v>0.662634642965257</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.8105321741514575</v>
+        <v>0.8048159619009934</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-3.212306544295719</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-0.9075122738481517</v>
+        <v>-0.9075122738481531</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.2122211270975199</v>
@@ -1948,7 +1948,7 @@
         <v>-1.666601665460316</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.4593135369900047</v>
+        <v>0.4593135369900053</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.594679522402006</v>
+        <v>-4.060580913681877</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.631064066994368</v>
+        <v>-6.805266025410127</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-4.132862425562492</v>
+        <v>-4.410754881583003</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.676054662959125</v>
+        <v>-2.467801192075362</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.142869097772175</v>
+        <v>-3.559815658169356</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.568899135028684</v>
+        <v>-1.489216613460572</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.116232334178232</v>
+        <v>-2.054065025570858</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.895662581702967</v>
+        <v>-3.786336056776614</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.737626406130439</v>
+        <v>-1.706675581258513</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.105433771414766</v>
+        <v>3.925814184938181</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.8375746389124812</v>
+        <v>-0.9922897414461359</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.81742226081684</v>
+        <v>1.642619204290841</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.79470579498187</v>
+        <v>2.789448052953245</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.788040903107817</v>
+        <v>1.840120204158048</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.571872865490687</v>
+        <v>3.836218949523049</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.616933299978368</v>
+        <v>2.524095309781087</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.0127282251335446</v>
+        <v>0.3896119457723534</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.199273090672632</v>
+        <v>2.322588390297077</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.8333065796873054</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.2354183632591183</v>
+        <v>-0.2354183632591187</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.06585046184526064</v>
@@ -2044,7 +2044,7 @@
         <v>-0.210754737202561</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.4213210286579182</v>
+        <v>0.421321028657918</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.05404485761182047</v>
@@ -2053,7 +2053,7 @@
         <v>-0.4807392699718163</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.1324911999291443</v>
+        <v>0.1324911999291446</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.7204498266480033</v>
+        <v>-0.6997973738555082</v>
       </c>
       <c r="D44" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.7092196717907285</v>
+        <v>-0.7367310930387085</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.5988046268953302</v>
+        <v>-0.5389056072748527</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.7071716830567872</v>
+        <v>-0.7240646312837307</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3240931844553879</v>
+        <v>-0.3306596054987808</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.4504663985480049</v>
+        <v>-0.4650267082415473</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.7775820796118368</v>
+        <v>-0.7774055577135092</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3550268650179089</v>
+        <v>-0.3489617277824254</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.041350227439733</v>
+        <v>2.058315397720533</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.2135456091283239</v>
+        <v>-0.001875348326473803</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.042011472056041</v>
+        <v>1.039477284414494</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.622789872541533</v>
+        <v>1.713930497168286</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.101851103403653</v>
+        <v>1.052807865089</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.843941130555395</v>
+        <v>2.183643905868829</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.049998384934739</v>
+        <v>1.205524582699852</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.132489300858453</v>
+        <v>0.2931696246166019</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.9812249831012031</v>
+        <v>1.099977200568979</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>0.2458133837111003</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.5353522049271957</v>
+        <v>0.535352204927195</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>0.6438244276749189</v>
@@ -2162,7 +2162,7 @@
         <v>0.1433551036977648</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.8346789633498903</v>
+        <v>0.8346789633498899</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.2442278982273361</v>
+        <v>0.3387237900406828</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.3853001125991237</v>
+        <v>-0.4627904090881425</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.1522092185805877</v>
+        <v>-0.1580554950857171</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.1082897991092018</v>
+        <v>-0.1393394904779375</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.7198455879921424</v>
+        <v>-0.6612142350419348</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.3724360241826316</v>
+        <v>0.3959689829758021</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.24382622159114</v>
+        <v>0.2977097565231057</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.3613774072634584</v>
+        <v>-0.320032348299369</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>0.281144782744027</v>
+        <v>0.3089926138443771</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.763553056312729</v>
+        <v>1.847977307904096</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.9185874536380743</v>
+        <v>0.9645159978249149</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.247188637287711</v>
+        <v>1.331306094589645</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.40012798759396</v>
+        <v>1.360850983610964</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.7641089299570749</v>
+        <v>0.7717472757911789</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.83816025524868</v>
+        <v>1.807312644121682</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.363548777349338</v>
+        <v>1.366515928057718</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.657956891533657</v>
+        <v>0.6464866584431914</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.32482956072465</v>
+        <v>1.343091481020695</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.137254143805365</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.2989231400351878</v>
+        <v>0.2989231400351874</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.2908973829292523</v>
@@ -2267,7 +2267,7 @@
         <v>0.07148542741093025</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.4162208453476178</v>
+        <v>0.4162208453476177</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1149928892154521</v>
+        <v>0.1491215100696775</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1937069597568736</v>
+        <v>-0.2140139051265869</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.07722290277889127</v>
+        <v>-0.07884585676719462</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.04180153985005263</v>
+        <v>-0.06093165752120282</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2729638916758961</v>
+        <v>-0.2728732972506635</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.146231416655178</v>
+        <v>0.138418954084989</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.101617091515021</v>
+        <v>0.1332942254991813</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1610617881890763</v>
+        <v>-0.1388298921950992</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.1214413955688149</v>
+        <v>0.1401831062177086</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.225195694100484</v>
+        <v>1.271629612124474</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.6245478706307503</v>
+        <v>0.6359113216273018</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.819747134058512</v>
+        <v>0.9082761048755975</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.7786840163633402</v>
+        <v>0.7116514369806137</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.3969271861936943</v>
+        <v>0.4320510325706386</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.002257524683595</v>
+        <v>0.9601241738687248</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.7709238270787139</v>
+        <v>0.7778795171115139</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.3738362272805165</v>
+        <v>0.3635303607522217</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.7485272693284455</v>
+        <v>0.7734919848036066</v>
       </c>
     </row>
     <row r="52">
